--- a/02-Requirements/Backlog_G3-Desarrollo web.xlsx
+++ b/02-Requirements/Backlog_G3-Desarrollo web.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp intel celeron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEGUNDO IZA\OneDrive\Documentos\GitHub\ESPE202205-T3-AlphaCoders\02-Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85577BD4-90D6-43D7-9119-0695191F2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -335,7 +334,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="BURDONCHART-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="BURDONCHART-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -372,7 +371,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C1B770-F4D2-19FC-A31C-AD3E63D2B1EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7C1B770-F4D2-19FC-A31C-AD3E63D2B1EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -429,7 +428,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1400" b="0"/>
-            <a:t>Abigail Iza</a:t>
+            <a:t>Lizeth Iza</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -657,14 +656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
@@ -1958,7 +1957,7 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:H215" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H215">
     <filterColumn colId="6">
       <filters>
         <filter val="Alta"/>

--- a/02-Requirements/Backlog_G3-Desarrollo web.xlsx
+++ b/02-Requirements/Backlog_G3-Desarrollo web.xlsx
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,22 +231,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -296,30 +290,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +378,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C1B770-F4D2-19FC-A31C-AD3E63D2B1EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7C1B770-F4D2-19FC-A31C-AD3E63D2B1EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,305 +670,306 @@
   </sheetPr>
   <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="72.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1183,50 +1174,50 @@
     <row r="213" spans="4:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" spans="4:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" spans="4:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="4:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="4:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="217" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
     </row>
     <row r="218" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
     </row>
     <row r="220" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
     </row>
     <row r="221" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="229" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
